--- a/App/eval_model/BERT.xlsx
+++ b/App/eval_model/BERT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Master Thesis\App\eval_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0879F3F-D8D7-49C8-A644-466899B1E5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7082F3E-C17F-4332-B314-D87D84296A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17955" yWindow="5205" windowWidth="21600" windowHeight="11385" xr2:uid="{A2519710-8BE5-40CE-87DD-9FFD82BC98AE}"/>
+    <workbookView xWindow="5505" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{A2519710-8BE5-40CE-87DD-9FFD82BC98AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Epoch</t>
   </si>
@@ -54,27 +54,6 @@
     <t>Hyperparameters</t>
   </si>
   <si>
-    <t>Adam &amp; lr = 1e^-5 &amp; eps = 1e^-8</t>
-  </si>
-  <si>
-    <t>Adam &amp; lr = 1e^-5 &amp; eps = 1e^-9</t>
-  </si>
-  <si>
-    <t>Adam &amp; lr = 1e^-5 &amp; eps = 1e^-10</t>
-  </si>
-  <si>
-    <t>Adam &amp; lr = 1e^-4 &amp; eps = 1e^-10</t>
-  </si>
-  <si>
-    <t>Adam &amp; lr = 1e^-6 &amp; eps = 1e^-10</t>
-  </si>
-  <si>
-    <t>Adam &amp; lr = 1e^-6 &amp; eps = 1e^-11</t>
-  </si>
-  <si>
-    <t>Adam &amp; lr = 1e^-6 &amp; eps = 1e^-12</t>
-  </si>
-  <si>
     <t>Adafactor &amp; lr = 1e-5</t>
   </si>
   <si>
@@ -82,6 +61,15 @@
   </si>
   <si>
     <t>Adafactor &amp; lr = 1e-6</t>
+  </si>
+  <si>
+    <t>Adam &amp; lr = 1e-6 &amp; eps = 1e-8</t>
+  </si>
+  <si>
+    <t>Adam &amp; lr = 1e-5 &amp; eps = 1e-8</t>
+  </si>
+  <si>
+    <t>Adam &amp; lr = 1e-4 &amp; eps = 1e-8</t>
   </si>
 </sst>
 </file>
@@ -442,7 +430,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +475,7 @@
         <v>0.88676933359324905</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -507,7 +495,7 @@
         <v>0.90049848227463802</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -527,7 +515,7 @@
         <v>0.904647859867999</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -547,7 +535,7 @@
         <v>0.67456626472472003</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -567,7 +555,7 @@
         <v>0.67456626472472003</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -587,7 +575,7 @@
         <v>0.67456626472472003</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,7 +595,7 @@
         <v>0.83541730485393595</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -627,7 +615,7 @@
         <v>0.86371104736974003</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -647,7 +635,7 @@
         <v>0.86579966025230404</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -667,7 +655,7 @@
         <v>0.80865521178534605</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,7 +675,7 @@
         <v>0.82360968002450596</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,7 +695,7 @@
         <v>0.83224261327243798</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -727,7 +715,7 @@
         <v>0.86989334150213005</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -747,7 +735,7 @@
         <v>0.84714138516806303</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -767,7 +755,7 @@
         <v>0.84015149405441503</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -787,7 +775,7 @@
         <v>0.69124731961346697</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,7 +795,7 @@
         <v>0.700186582750842</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,7 +815,7 @@
         <v>0.71243977832855199</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/App/eval_model/BERT.xlsx
+++ b/App/eval_model/BERT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Master Thesis\App\eval_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7082F3E-C17F-4332-B314-D87D84296A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2462FC6A-1269-4197-AAAC-61611F013D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{A2519710-8BE5-40CE-87DD-9FFD82BC98AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2519710-8BE5-40CE-87DD-9FFD82BC98AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -63,13 +63,13 @@
     <t>Adafactor &amp; lr = 1e-6</t>
   </si>
   <si>
-    <t>Adam &amp; lr = 1e-6 &amp; eps = 1e-8</t>
-  </si>
-  <si>
-    <t>Adam &amp; lr = 1e-5 &amp; eps = 1e-8</t>
-  </si>
-  <si>
-    <t>Adam &amp; lr = 1e-4 &amp; eps = 1e-8</t>
+    <t>AdamW &amp; lr = 1e-5</t>
+  </si>
+  <si>
+    <t>AdamW &amp; lr = 1e-4</t>
+  </si>
+  <si>
+    <t>AdamW &amp; lr = 1e-6</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>0.88676933359324905</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>0.90049848227463802</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>0.904647859867999</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>0.67456626472472003</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>0.67456626472472003</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>0.67456626472472003</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>0.83541730485393595</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>0.86371104736974003</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>0.86579966025230404</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
